--- a/jpcore-r4/feature/改行テスト/StructureDefinition-JP-DocumentReference.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-JP-DocumentReference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2098" uniqueCount="417">
   <si>
     <t>Property</t>
   </si>
@@ -151,10 +151,6 @@
     <t>通常、これはFHIRによって定義されたもの以外のドキュメントに使用されます。 / Usually, this is used for documents other than those defined by FHIR.</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -208,208 +204,208 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>DocumentReference.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DocumentReference.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>拡張子は常にURLで切り片にされます。</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DocumentReference.meta.versionId</t>
+  </si>
+  <si>
+    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+  </si>
+  <si>
+    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
+  </si>
+  <si>
+    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>DocumentReference.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>リソースのバージョンが最後に変更されたとき</t>
+  </si>
+  <si>
+    <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
+  </si>
+  <si>
+    <t>この値はリソースが初めて作成される場合を除いて常に設定されています。サーバー/リソースマネージャーがこの値を設定します。クライアントが提供する値は関係ありません。これはHTTP Last-Modifiedに相当し、[read](http://hl7.org/fhir/R4/http.html#read)のインタラクションで同じ値を持つべきです。</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>DocumentReference.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+  </si>
+  <si>
+    <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
+  </si>
+  <si>
+    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
+この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>DocumentReference.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>このリソースが適合を主張するプロファイル</t>
+  </si>
+  <si>
+    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+  </si>
+  <si>
+    <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>DocumentReference.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>このリソースに適用されたセキュリティラベル</t>
+  </si>
+  <si>
+    <t>このリソースにはセキュリティラベルが適用されています。これらのタグにより、特定のリソースが全体的なセキュリティポリシーやインフラストラクチャに関連付けられます。</t>
+  </si>
+  <si>
+    <t>セキュリティラベルは変更せずにリソースのバージョンを更新可能です。セキュリティラベルのリストはセットであり、一意性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>医療プライバシーおよびセキュリティ分類システムからのセキュリティラベル。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>DocumentReference.meta.tag</t>
+  </si>
+  <si>
+    <t>このリソースに適用されたタグ</t>
+  </si>
+  <si>
+    <t>このリソースに適用されるタグです。タグは、リソースをプロセスやワークフローに識別し、関連付けるために使用することが意図されており、アプリケーションはリソースの意味を解釈する際にタグを考慮する必要はありません。</t>
+  </si>
+  <si>
+    <t>リソースの表示バージョンを変更することなく、タグを更新できます。タグのリストは集合です。ユニーク性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>DocumentReference.implicitRules</t>
+  </si>
+  <si>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>DocumentReference.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>エレメント相互参照のためのユニークID</t>
-  </si>
-  <si>
-    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>DocumentReference.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>実装によって定義される追加コンテンツ</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
-  </si>
-  <si>
-    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>拡張子は常にURLで切り片にされます。</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DocumentReference.meta.versionId</t>
-  </si>
-  <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
-  </si>
-  <si>
-    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
-  </si>
-  <si>
-    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>DocumentReference.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>リソースのバージョンが最後に変更されたとき</t>
-  </si>
-  <si>
-    <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
-  </si>
-  <si>
-    <t>この値はリソースが初めて作成される場合を除いて常に設定されています。サーバー/リソースマネージャーがこの値を設定します。クライアントが提供する値は関係ありません。これはHTTP Last-Modifiedに相当し、[read](http://hl7.org/fhir/R4/http.html#read)のインタラクションで同じ値を持つべきです。</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>DocumentReference.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
-  </si>
-  <si>
-    <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
-  </si>
-  <si>
-    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
-この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>DocumentReference.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>このリソースが適合を主張するプロファイル</t>
-  </si>
-  <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
-  </si>
-  <si>
-    <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>DocumentReference.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>このリソースに適用されたセキュリティラベル</t>
-  </si>
-  <si>
-    <t>このリソースにはセキュリティラベルが適用されています。これらのタグにより、特定のリソースが全体的なセキュリティポリシーやインフラストラクチャに関連付けられます。</t>
-  </si>
-  <si>
-    <t>セキュリティラベルは変更せずにリソースのバージョンを更新可能です。セキュリティラベルのリストはセットであり、一意性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>医療プライバシーおよびセキュリティ分類システムからのセキュリティラベル。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>DocumentReference.meta.tag</t>
-  </si>
-  <si>
-    <t>このリソースに適用されたタグ</t>
-  </si>
-  <si>
-    <t>このリソースに適用されるタグです。タグは、リソースをプロセスやワークフローに識別し、関連付けるために使用することが意図されており、アプリケーションはリソースの意味を解釈する際にタグを考慮する必要はありません。</t>
-  </si>
-  <si>
-    <t>リソースの表示バージョンを変更することなく、タグを更新できます。タグのリストは集合です。ユニーク性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>DocumentReference.implicitRules</t>
-  </si>
-  <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
   </si>
   <si>
     <t>DocumentReference.language</t>
@@ -1793,19 +1789,19 @@
         <v>37</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>44</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AM1" t="s" s="2">
+      <c r="AN1" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="AN1" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>37</v>
@@ -1819,10 +1815,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1833,28 +1829,28 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1904,13 +1900,13 @@
         <v>37</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>37</v>
@@ -1942,10 +1938,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1956,25 +1952,25 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2025,19 +2021,19 @@
         <v>37</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>37</v>
@@ -2063,10 +2059,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2077,7 +2073,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>37</v>
@@ -2089,13 +2085,13 @@
         <v>37</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2146,13 +2142,13 @@
         <v>37</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>37</v>
@@ -2167,7 +2163,7 @@
         <v>37</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>37</v>
@@ -2184,14 +2180,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2210,16 +2206,16 @@
         <v>37</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2257,19 +2253,19 @@
         <v>37</v>
       </c>
       <c r="AB5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AC5" t="s" s="2">
+      <c r="AF5" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -2281,7 +2277,7 @@
         <v>37</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>37</v>
@@ -2290,7 +2286,7 @@
         <v>37</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>37</v>
@@ -2307,10 +2303,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2321,28 +2317,28 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="L6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2392,19 +2388,19 @@
         <v>37</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>37</v>
@@ -2430,10 +2426,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2444,28 +2440,28 @@
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2515,19 +2511,19 @@
         <v>37</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>37</v>
@@ -2553,10 +2549,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2567,28 +2563,28 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2638,19 +2634,19 @@
         <v>37</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>37</v>
@@ -2676,10 +2672,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2699,19 +2695,19 @@
         <v>37</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2761,7 +2757,7 @@
         <v>37</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2773,7 +2769,7 @@
         <v>37</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>37</v>
@@ -2799,10 +2795,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2822,19 +2818,19 @@
         <v>37</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2860,31 +2856,31 @@
         <v>37</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2896,7 +2892,7 @@
         <v>37</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>37</v>
@@ -2922,10 +2918,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2945,19 +2941,19 @@
         <v>37</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2983,31 +2979,31 @@
         <v>37</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -3019,7 +3015,7 @@
         <v>37</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>37</v>
@@ -3045,10 +3041,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3059,28 +3055,28 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3130,19 +3126,19 @@
         <v>37</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>37</v>
@@ -3168,10 +3164,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3182,7 +3178,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>37</v>
@@ -3194,16 +3190,16 @@
         <v>37</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3229,43 +3225,43 @@
         <v>37</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>37</v>
@@ -3291,21 +3287,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>37</v>
@@ -3317,16 +3313,16 @@
         <v>37</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3376,28 +3372,28 @@
         <v>37</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>37</v>
@@ -3414,14 +3410,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3440,16 +3436,16 @@
         <v>37</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3499,7 +3495,7 @@
         <v>37</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -3520,7 +3516,7 @@
         <v>37</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>37</v>
@@ -3537,14 +3533,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3563,16 +3559,16 @@
         <v>37</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3622,7 +3618,7 @@
         <v>37</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -3634,7 +3630,7 @@
         <v>37</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>37</v>
@@ -3643,7 +3639,7 @@
         <v>37</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>37</v>
@@ -3660,14 +3656,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3680,25 +3676,25 @@
         <v>37</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>37</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>37</v>
@@ -3747,7 +3743,7 @@
         <v>37</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -3759,7 +3755,7 @@
         <v>37</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>37</v>
@@ -3768,7 +3764,7 @@
         <v>37</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>37</v>
@@ -3785,10 +3781,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3799,31 +3795,31 @@
         <v>38</v>
       </c>
       <c r="G18" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I18" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J18" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I18" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J18" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K18" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>165</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>166</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>167</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>37</v>
@@ -3872,48 +3868,48 @@
         <v>37</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AL18" t="s" s="2">
         <v>168</v>
       </c>
-      <c r="AL18" t="s" s="2">
+      <c r="AM18" t="s" s="2">
         <v>169</v>
       </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>170</v>
       </c>
-      <c r="AN18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="AO18" t="s" s="2">
+      <c r="AP18" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="AP18" t="s" s="2">
+      <c r="AQ18" t="s" s="2">
         <v>173</v>
-      </c>
-      <c r="AQ18" t="s" s="2">
-        <v>174</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3933,16 +3929,16 @@
         <v>37</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>177</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3993,7 +3989,7 @@
         <v>37</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>38</v>
@@ -4005,36 +4001,36 @@
         <v>37</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AP19" t="s" s="2">
         <v>178</v>
       </c>
-      <c r="AN19" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="AP19" t="s" s="2">
+      <c r="AQ19" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="AQ19" t="s" s="2">
-        <v>180</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4042,31 +4038,31 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I20" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G20" t="s" s="2">
+      <c r="J20" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K20" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L20" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M20" t="s" s="2">
         <v>182</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>184</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4092,72 +4088,72 @@
         <v>37</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="Z20" t="s" s="2">
+      <c r="AA20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AA20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK20" t="s" s="2">
+      <c r="AL20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="AL20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO20" t="s" s="2">
         <v>189</v>
       </c>
-      <c r="AN20" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO20" t="s" s="2">
+      <c r="AP20" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AP20" t="s" s="2">
+      <c r="AQ20" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="AQ20" t="s" s="2">
-        <v>192</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4168,28 +4164,28 @@
         <v>38</v>
       </c>
       <c r="G21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K21" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="M21" t="s" s="2">
+      <c r="N21" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4215,61 +4211,61 @@
         <v>37</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y21" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="Z21" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="Z21" t="s" s="2">
+      <c r="AA21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF21" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AG21" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL21" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AA21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF21" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="AG21" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH21" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ21" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL21" t="s" s="2">
+      <c r="AM21" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="AM21" t="s" s="2">
+      <c r="AN21" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>37</v>
@@ -4277,10 +4273,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4291,28 +4287,28 @@
         <v>38</v>
       </c>
       <c r="G22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4338,76 +4334,76 @@
         <v>37</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y22" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Z22" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Z22" t="s" s="2">
+      <c r="AA22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF22" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AG22" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI22" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK22" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="AA22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="AG22" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH22" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI22" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ22" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK22" t="s" s="2">
+      <c r="AL22" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AL22" t="s" s="2">
+      <c r="AM22" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AM22" t="s" s="2">
+      <c r="AN22" t="s" s="2">
         <v>211</v>
       </c>
-      <c r="AN22" t="s" s="2">
+      <c r="AO22" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AO22" t="s" s="2">
+      <c r="AP22" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AP22" t="s" s="2">
+      <c r="AQ22" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AQ22" t="s" s="2">
-        <v>215</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4423,19 +4419,19 @@
         <v>37</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4461,14 +4457,14 @@
         <v>37</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Y23" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="Z23" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="Z23" t="s" s="2">
-        <v>222</v>
-      </c>
       <c r="AA23" t="s" s="2">
         <v>37</v>
       </c>
@@ -4485,7 +4481,7 @@
         <v>37</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
@@ -4497,36 +4493,36 @@
         <v>37</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL23" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AM23" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="AM23" t="s" s="2">
+      <c r="AN23" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AN23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AP23" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ23" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ23" t="s" s="2">
-        <v>226</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4537,25 +4533,25 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I24" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J24" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K24" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="L24" t="s" s="2">
+      <c r="M24" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4606,80 +4602,80 @@
         <v>37</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK24" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AL24" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="AL24" t="s" s="2">
+      <c r="AM24" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AM24" t="s" s="2">
+      <c r="AN24" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AN24" t="s" s="2">
+      <c r="AO24" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="AO24" t="s" s="2">
+      <c r="AP24" t="s" s="2">
         <v>235</v>
       </c>
-      <c r="AP24" t="s" s="2">
+      <c r="AQ24" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="AQ24" t="s" s="2">
-        <v>237</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J25" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K25" t="s" s="2">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4729,34 +4725,34 @@
         <v>37</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK25" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="AL25" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO25" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>37</v>
@@ -4767,10 +4763,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4790,19 +4786,19 @@
         <v>37</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4852,7 +4848,7 @@
         <v>37</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>38</v>
@@ -4864,36 +4860,36 @@
         <v>37</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK26" t="s" s="2">
+        <v>251</v>
+      </c>
+      <c r="AL26" t="s" s="2">
         <v>252</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AO26" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP26" t="s" s="2">
+      <c r="AQ26" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AQ26" t="s" s="2">
-        <v>257</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4904,7 +4900,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>37</v>
@@ -4916,16 +4912,16 @@
         <v>37</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>259</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>260</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4975,48 +4971,48 @@
         <v>37</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="AN27" t="s" s="2">
+      <c r="AO27" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="AO27" t="s" s="2">
+      <c r="AP27" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AP27" t="s" s="2">
+      <c r="AQ27" t="s" s="2">
         <v>267</v>
-      </c>
-      <c r="AQ27" t="s" s="2">
-        <v>268</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5027,7 +5023,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>37</v>
@@ -5039,16 +5035,16 @@
         <v>37</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5098,28 +5094,28 @@
         <v>37</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AL28" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>37</v>
@@ -5136,10 +5132,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5159,19 +5155,19 @@
         <v>37</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>278</v>
       </c>
-      <c r="M29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>280</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5221,7 +5217,7 @@
         <v>37</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>38</v>
@@ -5233,36 +5229,36 @@
         <v>37</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP29" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ29" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5273,7 +5269,7 @@
         <v>38</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>37</v>
@@ -5285,13 +5281,13 @@
         <v>37</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5342,13 +5338,13 @@
         <v>37</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>37</v>
@@ -5363,7 +5359,7 @@
         <v>37</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>37</v>
@@ -5380,14 +5376,14 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5406,16 +5402,16 @@
         <v>37</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5465,7 +5461,7 @@
         <v>37</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>38</v>
@@ -5477,7 +5473,7 @@
         <v>37</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>37</v>
@@ -5486,7 +5482,7 @@
         <v>37</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>37</v>
@@ -5503,14 +5499,14 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5523,25 +5519,25 @@
         <v>37</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L32" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M32" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="N32" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>37</v>
@@ -5590,7 +5586,7 @@
         <v>37</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>38</v>
@@ -5602,7 +5598,7 @@
         <v>37</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>37</v>
@@ -5611,7 +5607,7 @@
         <v>37</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>37</v>
@@ -5628,10 +5624,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5639,31 +5635,31 @@
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J33" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G33" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J33" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K33" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>295</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>297</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5689,72 +5685,72 @@
         <v>37</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Y33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="Z33" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="Z33" t="s" s="2">
+      <c r="AA33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="AA33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP33" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ33" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ33" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5762,28 +5758,28 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G34" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J34" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G34" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J34" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K34" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -5834,48 +5830,48 @@
         <v>37</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP34" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ34" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="AN34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP34" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ34" t="s" s="2">
-        <v>309</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5886,31 +5882,31 @@
         <v>38</v>
       </c>
       <c r="G35" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J35" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J35" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K35" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="M35" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="N35" t="s" s="2">
+      <c r="O35" t="s" s="2">
         <v>313</v>
-      </c>
-      <c r="O35" t="s" s="2">
-        <v>314</v>
       </c>
       <c r="P35" t="s" s="2">
         <v>37</v>
@@ -5959,19 +5955,19 @@
         <v>37</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>37</v>
@@ -5980,27 +5976,27 @@
         <v>37</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP35" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AN35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP35" t="s" s="2">
+      <c r="AQ35" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6020,22 +6016,22 @@
         <v>37</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L36" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="M36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="M36" t="s" s="2">
+      <c r="N36" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="N36" t="s" s="2">
+      <c r="O36" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>37</v>
@@ -6060,14 +6056,14 @@
         <v>37</v>
       </c>
       <c r="X36" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z36" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>111</v>
-      </c>
       <c r="AA36" t="s" s="2">
         <v>37</v>
       </c>
@@ -6084,7 +6080,7 @@
         <v>37</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>38</v>
@@ -6096,36 +6092,36 @@
         <v>37</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL36" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP36" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AO36" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP36" t="s" s="2">
+      <c r="AQ36" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6133,7 +6129,7 @@
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>39</v>
@@ -6145,16 +6141,16 @@
         <v>37</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>330</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>331</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6205,10 +6201,10 @@
         <v>37</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>39</v>
@@ -6217,16 +6213,16 @@
         <v>37</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>37</v>
@@ -6243,10 +6239,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6257,7 +6253,7 @@
         <v>38</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>37</v>
@@ -6269,13 +6265,13 @@
         <v>37</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6326,13 +6322,13 @@
         <v>37</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>37</v>
@@ -6347,7 +6343,7 @@
         <v>37</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>37</v>
@@ -6364,14 +6360,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6390,16 +6386,16 @@
         <v>37</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6449,7 +6445,7 @@
         <v>37</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>38</v>
@@ -6461,7 +6457,7 @@
         <v>37</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>37</v>
@@ -6470,7 +6466,7 @@
         <v>37</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>37</v>
@@ -6487,14 +6483,14 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6507,25 +6503,25 @@
         <v>37</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L40" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M40" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M40" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="N40" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>37</v>
@@ -6574,7 +6570,7 @@
         <v>37</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>38</v>
@@ -6586,7 +6582,7 @@
         <v>37</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>37</v>
@@ -6595,7 +6591,7 @@
         <v>37</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>37</v>
@@ -6612,10 +6608,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6623,28 +6619,28 @@
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J41" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G41" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K41" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>339</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>340</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6695,48 +6691,48 @@
         <v>37</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN41" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="AM41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="AO41" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP41" t="s" s="2">
+      <c r="AQ41" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="AQ41" t="s" s="2">
-        <v>344</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6747,28 +6743,28 @@
         <v>38</v>
       </c>
       <c r="G42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J42" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J42" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K42" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>346</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>348</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6794,72 +6790,72 @@
         <v>37</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="Z42" t="s" s="2">
+      <c r="AA42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL42" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="AA42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL42" t="s" s="2">
+      <c r="AM42" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>351</v>
       </c>
-      <c r="AM42" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AN42" t="s" s="2">
+      <c r="AO42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP42" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ42" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AO42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP42" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ42" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6870,28 +6866,28 @@
         <v>38</v>
       </c>
       <c r="G43" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J43" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I43" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J43" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K43" t="s" s="2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6941,19 +6937,19 @@
         <v>37</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>37</v>
@@ -6962,7 +6958,7 @@
         <v>37</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>37</v>
@@ -6979,10 +6975,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6993,7 +6989,7 @@
         <v>38</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>37</v>
@@ -7005,13 +7001,13 @@
         <v>37</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7062,13 +7058,13 @@
         <v>37</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>37</v>
@@ -7083,7 +7079,7 @@
         <v>37</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>37</v>
@@ -7100,14 +7096,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7126,16 +7122,16 @@
         <v>37</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7185,7 +7181,7 @@
         <v>37</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>38</v>
@@ -7197,7 +7193,7 @@
         <v>37</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>37</v>
@@ -7206,7 +7202,7 @@
         <v>37</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>37</v>
@@ -7223,14 +7219,14 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7243,25 +7239,25 @@
         <v>37</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="M46" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="M46" t="s" s="2">
-        <v>292</v>
-      </c>
       <c r="N46" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>37</v>
@@ -7310,7 +7306,7 @@
         <v>37</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>38</v>
@@ -7322,7 +7318,7 @@
         <v>37</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>37</v>
@@ -7331,7 +7327,7 @@
         <v>37</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>37</v>
@@ -7348,10 +7344,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7374,13 +7370,13 @@
         <v>37</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>363</v>
       </c>
-      <c r="L47" t="s" s="2">
+      <c r="M47" t="s" s="2">
         <v>364</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>365</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -7431,7 +7427,7 @@
         <v>37</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>38</v>
@@ -7443,22 +7439,22 @@
         <v>37</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK47" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL47" t="s" s="2">
         <v>366</v>
       </c>
-      <c r="AL47" t="s" s="2">
+      <c r="AM47" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AM47" t="s" s="2">
+      <c r="AN47" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>368</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>37</v>
@@ -7469,10 +7465,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7495,16 +7491,16 @@
         <v>37</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="M48" t="s" s="2">
+      <c r="N48" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7530,14 +7526,14 @@
         <v>37</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Z48" t="s" s="2">
         <v>374</v>
       </c>
-      <c r="Z48" t="s" s="2">
-        <v>375</v>
-      </c>
       <c r="AA48" t="s" s="2">
         <v>37</v>
       </c>
@@ -7554,7 +7550,7 @@
         <v>37</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>38</v>
@@ -7566,36 +7562,36 @@
         <v>37</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL48" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM48" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AM48" t="s" s="2">
+      <c r="AN48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ48" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP48" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ48" t="s" s="2">
-        <v>378</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7606,25 +7602,25 @@
         <v>38</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="J49" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="J49" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K49" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7675,48 +7671,48 @@
         <v>37</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL49" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="AN49" t="s" s="2">
+      <c r="AO49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ49" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ49" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7727,7 +7723,7 @@
         <v>38</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>37</v>
@@ -7739,13 +7735,13 @@
         <v>37</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7772,72 +7768,72 @@
         <v>37</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Z50" t="s" s="2">
+      <c r="AA50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL50" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="AA50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL50" t="s" s="2">
+      <c r="AM50" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AM50" t="s" s="2">
+      <c r="AN50" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="AN50" t="s" s="2">
+      <c r="AO50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ50" t="s" s="2">
-        <v>395</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7848,7 +7844,7 @@
         <v>38</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>37</v>
@@ -7860,19 +7856,19 @@
         <v>37</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>400</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>37</v>
@@ -7897,72 +7893,72 @@
         <v>37</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>401</v>
       </c>
-      <c r="Z51" t="s" s="2">
+      <c r="AA51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="AA51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AB51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AC51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AD51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AE51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AF51" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG51" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH51" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AJ51" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AM51" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="AN51" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="AO51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP51" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ51" t="s" s="2">
-        <v>403</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7973,7 +7969,7 @@
         <v>38</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>37</v>
@@ -7985,13 +7981,13 @@
         <v>37</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>406</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>407</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8042,32 +8038,32 @@
         <v>37</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AM52" t="s" s="2">
+      <c r="AN52" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AN52" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="AO52" t="s" s="2">
         <v>37</v>
       </c>
@@ -8075,15 +8071,15 @@
         <v>37</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8106,16 +8102,16 @@
         <v>37</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8165,7 +8161,7 @@
         <v>37</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>38</v>
@@ -8177,28 +8173,28 @@
         <v>37</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AL53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AN53" t="s" s="2">
+      <c r="AO53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AP53" t="s" s="2">
-        <v>37</v>
-      </c>
-      <c r="AQ53" t="s" s="2">
-        <v>417</v>
       </c>
     </row>
   </sheetData>
